--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="24" windowWidth="12420" windowHeight="5832"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation Breakup" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -122,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,13 +143,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -157,32 +184,56 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="11">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -484,19 +535,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -518,7 +569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -529,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -540,18 +591,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="28">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -562,15 +613,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:3" s="4" customFormat="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -581,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -592,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -603,7 +654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="42">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -614,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="42">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -625,7 +676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="42">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -636,7 +687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="28">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -647,7 +698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="28">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -658,7 +709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="28">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -669,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="28">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -680,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="28">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -691,7 +742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="28">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -702,7 +753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="28">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -713,7 +764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="28">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -724,7 +775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="28">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -735,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="28">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -746,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="28">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -757,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -768,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="28">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -779,7 +830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="28">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -790,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -801,7 +852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="28">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -812,7 +863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" s="1" customFormat="1">
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,7 +873,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -832,9 +888,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -844,8 +905,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation Breakup" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>No</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t xml:space="preserve">Admin can generate a report of all users in the system </t>
+  </si>
+  <si>
+    <t>COMPLETE</t>
   </si>
 </sst>
 </file>
@@ -211,7 +214,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -222,6 +225,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -533,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -544,10 +548,12 @@
     <col min="1" max="1" width="3.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="2"/>
+    <col min="4" max="4" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="12.1640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5" ht="25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +563,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -568,19 +577,20 @@
       <c r="C2" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" s="4" customFormat="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -591,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="28">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="28">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -602,7 +612,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -613,7 +623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1">
+    <row r="7" spans="1:5" s="4" customFormat="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -621,7 +631,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -632,7 +642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -643,7 +653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -654,7 +664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42">
+    <row r="11" spans="1:5" ht="42">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -665,7 +675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="42">
+    <row r="12" spans="1:5" ht="42">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -676,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="42">
+    <row r="13" spans="1:5" ht="42">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -687,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28">
+    <row r="14" spans="1:5" ht="28">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -698,7 +708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="28">
+    <row r="15" spans="1:5" ht="28">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -709,7 +719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28">
+    <row r="16" spans="1:5" ht="28">
       <c r="A16" s="2">
         <v>15</v>
       </c>

--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -123,7 +123,13 @@
     <t xml:space="preserve">Admin can generate a report of all users in the system </t>
   </si>
   <si>
-    <t>COMPLETE</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Everything will be consistent with CSS</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
   </si>
 </sst>
 </file>
@@ -537,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -553,7 +559,7 @@
     <col min="6" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25" customHeight="1">
+    <row r="1" spans="1:6" ht="25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,22 +570,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" s="4" customFormat="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1">
+      <c r="C2" s="4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -590,7 +602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -601,7 +613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="28">
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="28">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -612,7 +624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -623,7 +635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1">
+    <row r="7" spans="1:6" s="4" customFormat="1">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -631,18 +643,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28">
-      <c r="A8" s="2">
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="28">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -653,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -664,7 +676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="42">
+    <row r="11" spans="1:6" ht="42">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -675,7 +687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="42">
+    <row r="12" spans="1:6" ht="42">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -686,7 +698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="42">
+    <row r="13" spans="1:6" ht="42">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -697,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28">
+    <row r="14" spans="1:6" ht="28">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -708,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28">
+    <row r="15" spans="1:6" ht="28">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -719,7 +731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28">
+    <row r="16" spans="1:6" ht="28">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -818,25 +830,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
+    <row r="25" spans="1:3" s="4" customFormat="1">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28">
-      <c r="A26" s="2">
+      <c r="C25" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1" ht="28">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="4">
         <v>5</v>
       </c>
     </row>

--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -546,7 +546,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -602,14 +602,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2">
+    <row r="4" spans="1:6" s="4" customFormat="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>5</v>
       </c>
     </row>
@@ -624,14 +624,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:6" s="4" customFormat="1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
     </row>

--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>No</t>
   </si>
@@ -130,6 +130,15 @@
   </si>
   <si>
     <t>COMPLETED</t>
+  </si>
+  <si>
+    <t>6 Resources consist of:</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Hardcoded year so it will be impossible for users to edit previous years</t>
   </si>
 </sst>
 </file>
@@ -169,7 +178,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,6 +188,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -220,7 +235,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -232,6 +247,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -545,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -658,11 +677,14 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2">
-        <v>5</v>
+      <c r="C9" s="7">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -709,25 +731,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28">
-      <c r="A14" s="2">
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="28">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28">
-      <c r="A15" s="2">
+      <c r="C14" s="4">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="28">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="4">
         <v>10</v>
       </c>
     </row>
@@ -742,7 +767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28">
+    <row r="17" spans="1:6" ht="28">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -753,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="28">
+    <row r="18" spans="1:6" ht="28">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -764,7 +789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="28">
+    <row r="19" spans="1:6" ht="28">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -775,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="28">
+    <row r="20" spans="1:6" ht="28">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -786,51 +811,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="28">
-      <c r="A21" s="2">
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="28">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28">
-      <c r="A22" s="2">
+      <c r="C21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="28">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28">
-      <c r="A23" s="2">
+      <c r="C22" s="7">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="28">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28">
-      <c r="A24" s="2">
+      <c r="C23" s="7">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="28">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" s="4" customFormat="1">
+      <c r="C24" s="7">
+        <v>5</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -841,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1" ht="28">
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="28">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -852,40 +889,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="28">
-      <c r="A27" s="2">
+    <row r="27" spans="1:6" s="4" customFormat="1" ht="28">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
+      <c r="C27" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="4" customFormat="1">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28">
-      <c r="A29" s="2">
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="4" customFormat="1" ht="28">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" s="1" customFormat="1">
+      <c r="B29" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1">
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>

--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Hardcoded year so it will be impossible for users to edit previous years</t>
+  </si>
+  <si>
+    <t>PS</t>
   </si>
 </sst>
 </file>
@@ -178,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +197,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,7 +244,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -249,6 +258,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -564,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -699,36 +712,45 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="42">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
-        <v>5</v>
+      <c r="C11" s="9">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42">
-      <c r="A12" s="2">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
-        <v>5</v>
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="42">
-      <c r="A13" s="2">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
-        <v>5</v>
+      <c r="C13" s="9">
+        <v>5</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="28">

--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -181,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,12 +197,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +238,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -258,10 +252,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -577,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -687,7 +677,7 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="2">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -711,45 +701,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="42">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="42">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="9">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="C11" s="4">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="42">
-      <c r="A12" s="9">
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="42">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="9">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="4">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="42">
-      <c r="A13" s="9">
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="42">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="9">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>38</v>
       </c>
     </row>

--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> This will be in combination of persisting the training plan to the DB</t>
+  </si>
+  <si>
+    <t>KC</t>
   </si>
 </sst>
 </file>
@@ -181,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,6 +203,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,7 +237,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -237,8 +249,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -254,18 +268,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -565,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -686,7 +706,7 @@
       <c r="C9" s="7">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -779,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="28">
+    <row r="17" spans="1:9" ht="28">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -790,7 +810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28">
+    <row r="18" spans="1:9" ht="28">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -801,7 +821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28">
+    <row r="19" spans="1:9" ht="28">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -812,18 +832,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="28">
-      <c r="A20" s="2">
+    <row r="20" spans="1:9" ht="28">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="4" customFormat="1" ht="28">
+      <c r="C20" s="9">
+        <v>5</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="28">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -837,7 +867,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28">
+    <row r="22" spans="1:9" ht="28">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -847,11 +877,11 @@
       <c r="C22" s="7">
         <v>5</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="28">
+    <row r="23" spans="1:9" ht="28">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -861,11 +891,11 @@
       <c r="C23" s="7">
         <v>5</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="28">
+    <row r="24" spans="1:9" ht="28">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -875,11 +905,11 @@
       <c r="C24" s="7">
         <v>5</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="4" customFormat="1">
+    <row r="25" spans="1:9" s="4" customFormat="1">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -890,7 +920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="28">
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="28">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -901,7 +931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="4" customFormat="1" ht="28">
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="28">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -912,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="4" customFormat="1">
+    <row r="28" spans="1:9" s="4" customFormat="1">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -923,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="4" customFormat="1" ht="28">
+    <row r="29" spans="1:9" s="4" customFormat="1" ht="28">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -934,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1">
+    <row r="30" spans="1:9" s="1" customFormat="1">
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>

--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -895,17 +895,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28">
-      <c r="A24" s="7">
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="28">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="7">
-        <v>5</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -252,7 +252,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -265,9 +265,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -587,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -833,25 +830,25 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="28">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="9">
-        <v>5</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="8">
+        <v>5</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="28">
       <c r="A21" s="4">
@@ -867,31 +864,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28">
-      <c r="A22" s="7">
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="28">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="7">
-        <v>5</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="4">
+        <v>5</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28">
-      <c r="A23" s="7">
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="28">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="7">
-        <v>5</v>
-      </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="4">
+        <v>5</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>36</v>
       </c>
     </row>

--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/misc_files/requirements_project_org_trg_breakup.xlsx
+++ b/misc_files/requirements_project_org_trg_breakup.xlsx
@@ -187,7 +187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,12 +197,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +246,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -265,8 +259,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -584,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -693,17 +686,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="7">
+    <row r="9" spans="1:6" s="4" customFormat="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="7">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="4">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -830,25 +823,25 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="28">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="8">
-        <v>5</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="28">
       <c r="A21" s="4">
